--- a/output_by_subject/CB405.xlsx
+++ b/output_by_subject/CB405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1587,6 +1587,50 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1801CB10</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CB405</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1801CB19</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CB405</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
